--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\StudentInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A8F453-DB40-48BD-8214-FEE7C1E962AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AF390-8A46-4EF9-91AF-77CE312B344F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>College_Name</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>Email_ID</t>
   </si>
   <si>
+    <t>Percentage</t>
+  </si>
+  <si>
     <t>Aansh</t>
   </si>
   <si>
@@ -121,7 +127,7 @@
     <t>Tushar@email.com</t>
   </si>
   <si>
-    <t>Roll_No(UniqueID)</t>
+    <t>Roll_No</t>
   </si>
 </sst>
 </file>
@@ -183,10 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -493,29 +502,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -547,320 +559,348 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>23029001</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
         <v>99</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>9019622590</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>23029002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2">
+        <v>98</v>
+      </c>
+      <c r="I3" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>9549524821</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
         <v>92</v>
       </c>
-      <c r="H2">
-        <v>95</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>23029003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>9713674034</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>23029004</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2">
         <v>96</v>
       </c>
-      <c r="J2">
-        <v>9019622590</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I5" s="2">
+        <v>82</v>
+      </c>
+      <c r="J5" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9287354134</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>23029005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>9091427438</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>86.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>23029002</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>23029006</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>9329100880</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>23029007</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>98</v>
-      </c>
-      <c r="H3">
+      <c r="G8" s="2">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2">
+        <v>86</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>9849116245</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>78.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>23029008</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2">
+        <v>97</v>
+      </c>
+      <c r="H9" s="2">
+        <v>83</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>9589636990</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>23029009</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2">
         <v>79</v>
       </c>
-      <c r="I3">
-        <v>81</v>
-      </c>
-      <c r="J3">
-        <v>9549524821</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>23029003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>80</v>
-      </c>
-      <c r="H4">
-        <v>77</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>9713674034</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>23029004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>96</v>
-      </c>
-      <c r="H5">
-        <v>82</v>
-      </c>
-      <c r="I5">
-        <v>99</v>
-      </c>
-      <c r="J5">
-        <v>9287354134</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>23029005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>84</v>
-      </c>
-      <c r="G6">
-        <v>89</v>
-      </c>
-      <c r="H6">
-        <v>82</v>
-      </c>
-      <c r="I6">
-        <v>74</v>
-      </c>
-      <c r="J6">
-        <v>9091427438</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>23029006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>71</v>
-      </c>
-      <c r="G7">
-        <v>83</v>
-      </c>
-      <c r="H7">
-        <v>76</v>
-      </c>
-      <c r="I7">
-        <v>81</v>
-      </c>
-      <c r="J7">
-        <v>9329100880</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>23029007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>77</v>
-      </c>
-      <c r="G8">
-        <v>72</v>
-      </c>
-      <c r="H8">
-        <v>86</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>9849116245</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>23029008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>97</v>
-      </c>
-      <c r="G9">
-        <v>83</v>
-      </c>
-      <c r="H9">
-        <v>74</v>
-      </c>
-      <c r="I9">
-        <v>88</v>
-      </c>
-      <c r="J9">
-        <v>9589636990</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>23029009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>74</v>
-      </c>
-      <c r="G10">
-        <v>79</v>
-      </c>
-      <c r="H10">
-        <v>70</v>
-      </c>
-      <c r="I10">
-        <v>99</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
         <v>9675897333</v>
       </c>
-      <c r="K10" t="s">
-        <v>32</v>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2">
+        <v>76.5</v>
       </c>
     </row>
   </sheetData>
